--- a/biology/Histoire de la zoologie et de la botanique/Phil/Phil..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Phil/Phil..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rodolfo Amando Philippi (né Rudolph Amandus) est un  naturaliste chilien d’origine prussienne, né le 14 septembre 1808 à Charlottenbourg et mort le 23 juillet 1904 à Santiago du Chili.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné par l’histoire naturelle dès sa jeunesse, il fait des études de médecine à l’université de Berlin et obtient son diplôme en 1830. Il comptait parmi ses professeurs : Heinrich Lichtenstein (1780-1857), Heinrich Friedrich Link (1769-1851), Arend Friedrich August Wiegmann (1802-1841) et Alexander von Humboldt (1769-1859).
 Il commence à enseigner en 1835 à Cassel mais il perd son emploi à la suite des troubles politiques de 1848-1850.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Abbildungen und Beschreibungen neuer oder wenig bekannter Conchylien, Cassel, Theodor Fischer, 1842–1850
 (la) Enumeratio molluscorum Siciliae cum viventium tum in tellure tertiara fossilium, Berlin, Schropp, 1836; 2e  éd., Halle, Eduard Anton, 1844
